--- a/Maps_Sevenans.xlsx
+++ b/Maps_Sevenans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotum\Desktop\IFA\projet_utbquest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotum\Desktop\IFA\projet_utbquest\repo\projet-VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8053C30C-6D97-485B-83A9-1191B9406901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7CAD39-A8B6-45C4-9E71-C45C1F9EBF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BBAF291A-B607-4E64-9033-FB62D932372C}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{BBAF291A-B607-4E64-9033-FB62D932372C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -510,6 +510,10 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,10 +544,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1447,8 +1447,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:CV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN16" sqref="AN16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AP28" sqref="AP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,13 +3218,13 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="15"/>
-      <c r="Z18" s="57">
+      <c r="Z18" s="47">
         <v>6</v>
       </c>
       <c r="AA18" s="24"/>
       <c r="AB18" s="24"/>
       <c r="AC18" s="24"/>
-      <c r="AD18" s="56"/>
+      <c r="AD18" s="46"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -3826,9 +3826,9 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="47"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="51"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -3930,9 +3930,9 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="50"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="54"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -4022,10 +4022,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
         <v>1</v>
@@ -4038,15 +4038,15 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="53"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="57"/>
       <c r="U26" s="24"/>
       <c r="V26" s="24"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="54">
+      <c r="Z26" s="44">
         <v>3</v>
       </c>
       <c r="AA26" s="24"/>
@@ -4132,10 +4132,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
         <v>1</v>
@@ -4233,17 +4233,17 @@
       <c r="CV27" s="4"/>
     </row>
     <row r="28" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="15"/>
       <c r="C28" s="2"/>
       <c r="D28" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="44"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14" t="s">
         <v>1</v>
@@ -4397,7 +4397,7 @@
       <c r="BB29" s="2"/>
       <c r="BC29" s="2"/>
       <c r="BD29" s="2"/>
-      <c r="BE29" s="55"/>
+      <c r="BE29" s="45"/>
       <c r="BF29" s="2"/>
       <c r="BG29" s="2"/>
       <c r="BH29" s="2"/>

--- a/Maps_Sevenans.xlsx
+++ b/Maps_Sevenans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotum\Desktop\IFA\projet_utbquest\repo\projet-VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7CAD39-A8B6-45C4-9E71-C45C1F9EBF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C8BE12-1B95-47C0-B9FE-73103F5FD496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{BBAF291A-B607-4E64-9033-FB62D932372C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BBAF291A-B607-4E64-9033-FB62D932372C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -575,10 +575,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>103908</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28313</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:rowOff>119029</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1298865" cy="342786"/>
     <xdr:sp macro="" textlink="">
@@ -594,7 +594,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5126181" y="3151910"/>
+          <a:off x="5471170" y="3263791"/>
           <a:ext cx="1298865" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -699,8 +699,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>155864</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>50031</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
@@ -718,7 +718,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10373591" y="4312227"/>
+          <a:off x="10935745" y="4445275"/>
           <a:ext cx="1298865" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -761,10 +761,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>155865</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95389</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:rowOff>151465</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="935182" cy="346364"/>
     <xdr:sp macro="" textlink="">
@@ -780,7 +780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021774" y="4121727"/>
+          <a:off x="1183960" y="4278965"/>
           <a:ext cx="935182" cy="346364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -823,8 +823,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>103910</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>58552</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
@@ -842,7 +842,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4087092" y="5472545"/>
+          <a:off x="4412838" y="5607242"/>
           <a:ext cx="1298865" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -885,8 +885,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>121229</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>75872</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>121226</xdr:rowOff>
     </xdr:from>
@@ -904,7 +904,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4797138" y="6061362"/>
+          <a:off x="5155872" y="6214202"/>
           <a:ext cx="779318" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -947,8 +947,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106108</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>103910</xdr:rowOff>
     </xdr:from>
@@ -966,7 +966,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3065318" y="3151910"/>
+          <a:off x="3008965" y="3248672"/>
           <a:ext cx="1524000" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1022,10 +1022,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>121228</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>75873</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:rowOff>119028</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="536864" cy="342786"/>
     <xdr:sp macro="" textlink="">
@@ -1041,7 +1041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5489864" y="2389909"/>
+          <a:off x="5881587" y="2477599"/>
           <a:ext cx="536864" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1448,7 +1448,7 @@
   <dimension ref="A1:CV40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AP28" sqref="AP28"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
